--- a/US/data/BTS/TRPT/Passengers.xlsx
+++ b/US/data/BTS/TRPT/Passengers.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4404,13 +4404,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>23910774</v>
+        <v>24431822</v>
       </c>
       <c r="D234" t="n">
-        <v>2287544</v>
+        <v>2298093</v>
       </c>
       <c r="E234" t="n">
-        <v>26198318</v>
+        <v>26729915</v>
       </c>
     </row>
     <row r="235">
@@ -4489,13 +4489,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>335086792</v>
+        <v>335607840</v>
       </c>
       <c r="D239" t="n">
-        <v>63036602</v>
+        <v>63047151</v>
       </c>
       <c r="E239" t="n">
-        <v>398123394</v>
+        <v>398654991</v>
       </c>
     </row>
     <row r="240">
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>30351590</v>
+        <v>24305908</v>
       </c>
       <c r="D240" t="n">
-        <v>6033203</v>
+        <v>4504353</v>
       </c>
       <c r="E240" t="n">
-        <v>36384793</v>
+        <v>28810261</v>
       </c>
     </row>
     <row r="241">
@@ -4528,10 +4528,10 @@
         <v>24483505</v>
       </c>
       <c r="D241" t="n">
-        <v>2994451</v>
+        <v>2994388</v>
       </c>
       <c r="E241" t="n">
-        <v>27477956</v>
+        <v>27477893</v>
       </c>
     </row>
     <row r="242">
@@ -4545,10 +4545,10 @@
         <v>39343495</v>
       </c>
       <c r="D242" t="n">
-        <v>4613016</v>
+        <v>4616871</v>
       </c>
       <c r="E242" t="n">
-        <v>43956511</v>
+        <v>43960366</v>
       </c>
     </row>
     <row r="243">
@@ -4562,10 +4562,10 @@
         <v>43798946</v>
       </c>
       <c r="D243" t="n">
-        <v>5490755</v>
+        <v>5496300</v>
       </c>
       <c r="E243" t="n">
-        <v>49289701</v>
+        <v>49295246</v>
       </c>
     </row>
     <row r="244">
@@ -4579,10 +4579,10 @@
         <v>52752164</v>
       </c>
       <c r="D244" t="n">
-        <v>6987902</v>
+        <v>7010140</v>
       </c>
       <c r="E244" t="n">
-        <v>59740066</v>
+        <v>59762304</v>
       </c>
     </row>
     <row r="245">
@@ -4593,13 +4593,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>60109259</v>
+        <v>60110694</v>
       </c>
       <c r="D245" t="n">
-        <v>8966809</v>
+        <v>8974037</v>
       </c>
       <c r="E245" t="n">
-        <v>69076068</v>
+        <v>69084731</v>
       </c>
     </row>
     <row r="246">
@@ -4610,13 +4610,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>66732674</v>
+        <v>66739881</v>
       </c>
       <c r="D246" t="n">
-        <v>10785685</v>
+        <v>10811152</v>
       </c>
       <c r="E246" t="n">
-        <v>77518359</v>
+        <v>77551033</v>
       </c>
     </row>
     <row r="247">
@@ -4627,13 +4627,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>60621625</v>
+        <v>60630877</v>
       </c>
       <c r="D247" t="n">
-        <v>10484642</v>
+        <v>10515856</v>
       </c>
       <c r="E247" t="n">
-        <v>71106267</v>
+        <v>71146733</v>
       </c>
     </row>
     <row r="248">
@@ -4644,13 +4644,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>53895032</v>
+        <v>53902404</v>
       </c>
       <c r="D248" t="n">
-        <v>8053796</v>
+        <v>8247453</v>
       </c>
       <c r="E248" t="n">
-        <v>61948828</v>
+        <v>62149857</v>
       </c>
     </row>
     <row r="249">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>60540603</v>
+        <v>60547953</v>
       </c>
       <c r="D249" t="n">
-        <v>8576963</v>
+        <v>8756886</v>
       </c>
       <c r="E249" t="n">
-        <v>69117566</v>
+        <v>69304839</v>
       </c>
     </row>
     <row r="250">
@@ -4678,13 +4678,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>59769197</v>
+        <v>59778784</v>
       </c>
       <c r="D250" t="n">
-        <v>9772240</v>
+        <v>10170801</v>
       </c>
       <c r="E250" t="n">
-        <v>69541437</v>
+        <v>69949585</v>
       </c>
     </row>
     <row r="251">
@@ -4695,13 +4695,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>59519157</v>
+        <v>59532589</v>
       </c>
       <c r="D251" t="n">
-        <v>11628714</v>
+        <v>12146115</v>
       </c>
       <c r="E251" t="n">
-        <v>71147871</v>
+        <v>71678704</v>
       </c>
     </row>
     <row r="252">
@@ -4712,17 +4712,87 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>611917247</v>
+        <v>605927200</v>
       </c>
       <c r="D252" t="n">
-        <v>94388176</v>
+        <v>94244352</v>
       </c>
       <c r="E252" t="n">
-        <v>706305423</v>
+        <v>700171552</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>45811237</v>
+      </c>
+      <c r="D253" t="n">
+        <v>10133400</v>
+      </c>
+      <c r="E253" t="n">
+        <v>55944637</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>49067520</v>
+      </c>
+      <c r="D254" t="n">
+        <v>9277529</v>
+      </c>
+      <c r="E254" t="n">
+        <v>58345049</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>64515346</v>
+      </c>
+      <c r="D255" t="n">
+        <v>13029847</v>
+      </c>
+      <c r="E255" t="n">
+        <v>77545193</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>159394103</v>
+      </c>
+      <c r="D256" t="n">
+        <v>32440776</v>
+      </c>
+      <c r="E256" t="n">
+        <v>191834879</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="A19:A31"/>
@@ -4743,6 +4813,7 @@
     <mergeCell ref="A214:A226"/>
     <mergeCell ref="A227:A239"/>
     <mergeCell ref="A240:A252"/>
+    <mergeCell ref="A253:A256"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
